--- a/SUMMARY_EXPORT_DATA_DOWNLOAD.xlsx
+++ b/SUMMARY_EXPORT_DATA_DOWNLOAD.xlsx
@@ -13,36 +13,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t xml:space="preserve">Date</t>
+    <t xml:space="preserve">index.SHORT_TERM.</t>
   </si>
   <si>
-    <t xml:space="preserve">Export Volume (M-o-M)</t>
+    <t xml:space="preserve">Export.Volume..M.o.M.</t>
   </si>
   <si>
-    <t xml:space="preserve">Export Value (M-o-M)</t>
+    <t xml:space="preserve">Export.Value..M.o.M.</t>
   </si>
   <si>
-    <t xml:space="preserve">Import Value (M-o-M)</t>
+    <t xml:space="preserve">Import.Value..M.o.M.</t>
   </si>
   <si>
-    <t xml:space="preserve">Export Volume (Y-o-Y)</t>
+    <t xml:space="preserve">Export.Volume..Y.o.Y.</t>
   </si>
   <si>
-    <t xml:space="preserve">Export Value (Y-o-Y)</t>
+    <t xml:space="preserve">Export.Value..Y.o.Y.</t>
   </si>
   <si>
-    <t xml:space="preserve">Import Value (Y-o-Y)</t>
+    <t xml:space="preserve">Import.Value..Y.o.Y.</t>
   </si>
   <si>
-    <t xml:space="preserve">Three Month Export Growth (Y-o-Y)</t>
+    <t xml:space="preserve">index.Medium_TERM_DATA.</t>
   </si>
   <si>
-    <t xml:space="preserve">Six Month Export Growth (Y-o-Y)</t>
+    <t xml:space="preserve">THREE_MONTH_XTS</t>
   </si>
   <si>
-    <t xml:space="preserve">Tweleve Month Export Growth (Y-o-Y)</t>
+    <t xml:space="preserve">SIX_MONTH_XTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWELEVE_MONTH_XTS</t>
   </si>
 </sst>
 </file>
@@ -50,13 +53,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,35 +387,2613 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="1" t="n">
+        <v>42005</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="1" t="n">
+        <v>42036</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1" t="n">
+        <v>42064</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-4.06</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="1" t="n">
+        <v>42095</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="1" t="n">
+        <v>42125</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-2.35</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="n">
+        <v>42156</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.47</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-2.67</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>42186</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.38</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>42217</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>42248</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-7.66</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>42278</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>42309</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-8.04</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-1.89</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>42339</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-3.04</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>42370</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-13.79</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-4.2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>42401</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-16.45</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-9.76</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>42430</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="C16" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10.03</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>42461</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-4.11</v>
+      </c>
+      <c r="E17" t="n">
+        <v>9.39</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>42491</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-2.61</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-2.36</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G18" t="n">
+        <v>15.86</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>42522</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9.62</v>
+      </c>
+      <c r="G19" t="n">
+        <v>19.38</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-6.48</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>42583</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="E21" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="F21" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9.86</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>42614</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-5.58</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-4.66</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8.14</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="F22" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="G22" t="n">
+        <v>15.72</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>42644</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-15.72</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-5.18</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-9.88</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>42675</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="G24" t="n">
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>42705</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-5.77</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-8.95</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-7.17</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-4.94</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>42736</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>21.81</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F26" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="G26" t="n">
+        <v>39.96</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>42767</v>
+      </c>
+      <c r="B27" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-5.99</v>
+      </c>
+      <c r="E27" t="n">
+        <v>28.67</v>
+      </c>
+      <c r="F27" t="n">
+        <v>19.46</v>
+      </c>
+      <c r="G27" t="n">
+        <v>19.22</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>42795</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-5.1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-5.03</v>
+      </c>
+      <c r="E28" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="F28" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>42826</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-3.24</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-2.54</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-1.88</v>
+      </c>
+      <c r="G29" t="n">
+        <v>22.51</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>42856</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-2.45</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="E30" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="G30" t="n">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>42887</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-3.54</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-5.03</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>42917</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-12.11</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-2.49</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-2.47</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.91</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>42948</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D33" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-3.59</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-8.1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>42979</v>
+      </c>
+      <c r="B34" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-2.82</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-2.04</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>43009</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-1.87</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.69</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="G35" t="n">
+        <v>23.22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>43040</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-3.15</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>43070</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E37" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="F37" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="G37" t="n">
+        <v>8.53</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>43101</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C38" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="E38" t="n">
+        <v>29.97</v>
+      </c>
+      <c r="F38" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-9.12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>43132</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-6.82</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-1.64</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>43160</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-1.36</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-3.46</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-5.79</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-1.64</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>43191</v>
+      </c>
+      <c r="B41" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="E41" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="F41" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-3.58</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>43221</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-2.03</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-5.82</v>
+      </c>
+      <c r="E42" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="F42" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-9.08</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D43" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="E43" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="F43" t="n">
+        <v>19.84</v>
+      </c>
+      <c r="G43" t="n">
+        <v>14.89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-5.65</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-2.95</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-2.65</v>
+      </c>
+      <c r="E44" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="F44" t="n">
+        <v>20.69</v>
+      </c>
+      <c r="G44" t="n">
+        <v>35.81</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43313</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E45" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="F45" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="G45" t="n">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>43344</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="F46" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="G46" t="n">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>43374</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-2.65</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="E47" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="F47" t="n">
+        <v>27.05</v>
+      </c>
+      <c r="G47" t="n">
+        <v>27.83</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>43405</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="E48" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="F48" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="G48" t="n">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>43435</v>
+      </c>
+      <c r="B49" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E49" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="F49" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="G49" t="n">
+        <v>23.55</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-1.15</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-10.95</v>
+      </c>
+      <c r="E50" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="F50" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="G50" t="n">
+        <v>17.13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>43497</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-7.04</v>
+      </c>
+      <c r="E51" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="F51" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>43525</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-14.78</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-11.64</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-2.26</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="G52" t="n">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>43556</v>
+      </c>
+      <c r="B53" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="C53" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E53" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="G53" t="n">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>43586</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="E54" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="F54" t="n">
+        <v>16</v>
+      </c>
+      <c r="G54" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>43617</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-5.26</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-2.83</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-5.21</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-5.57</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-10.7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>43647</v>
+      </c>
+      <c r="B56" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="C56" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="D56" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="E56" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="F56" t="n">
+        <v>20.69</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>43678</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-7.13</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-6.05</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-6.33</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-7.08</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>43709</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="E58" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="F58" t="n">
+        <v>8.29</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-10.77</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>43739</v>
+      </c>
+      <c r="B59" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="C59" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="E59" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="F59" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-4.23</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>43770</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-10.07</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-12.02</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-4.23</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-2.31</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-11.59</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>43800</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-1.81</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-4.91</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>43831</v>
+      </c>
+      <c r="B62" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="C62" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-1.79</v>
+      </c>
+      <c r="E62" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="F62" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-7.23</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>43862</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-8.64</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-11.28</v>
+      </c>
+      <c r="D63" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-6.78</v>
+      </c>
+      <c r="G63" t="n">
+        <v>22.12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>43891</v>
+      </c>
+      <c r="B64" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="C64" t="n">
+        <v>38.37</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-22.67</v>
+      </c>
+      <c r="E64" t="n">
+        <v>52.35</v>
+      </c>
+      <c r="F64" t="n">
+        <v>51.24</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-12.94</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>43922</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-26.06</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-32.29</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-6.03</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-5.54</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-11.33</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-24.11</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B66" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="C66" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="D66" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-6.02</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-16.36</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-5.73</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="E67" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="F67" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-9.54</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B68" t="n">
+        <v>8.71</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="D68" t="n">
+        <v>27.65</v>
+      </c>
+      <c r="E68" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B69" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="C69" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-12.35</v>
+      </c>
+      <c r="E69" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="F69" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-10.93</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>44075</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-3.63</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-8.79</v>
+      </c>
+      <c r="E70" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="F70" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-12.23</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-11.31</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-8.93</v>
+      </c>
+      <c r="D71" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-8.24</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-14.38</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-11.07</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>44136</v>
+      </c>
+      <c r="B72" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="C72" t="n">
+        <v>17.24</v>
+      </c>
+      <c r="D72" t="n">
+        <v>20.65</v>
+      </c>
+      <c r="E72" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="F72" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="G72" t="n">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-7.72</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-10.67</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-12.68</v>
+      </c>
+      <c r="E73" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="F73" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="G73" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B74" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="C74" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-11.08</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-11.09</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-9.38</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-7.81</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-7.38</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F75" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-16.61</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B76" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="D76" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-8.78</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-16.72</v>
+      </c>
+      <c r="G76" t="n">
+        <v>38.28</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-5.45</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-5.06</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="E77" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="F77" t="n">
+        <v>8.36</v>
+      </c>
+      <c r="G77" t="n">
+        <v>48.08</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>44317</v>
+      </c>
+      <c r="B78" t="n">
+        <v>8.96</v>
+      </c>
+      <c r="C78" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="D78" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="E78" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="F78" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="G78" t="n">
+        <v>42.35</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>44348</v>
+      </c>
+      <c r="B79" t="n">
+        <v>9.88</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E79" t="n">
+        <v>17.71</v>
+      </c>
+      <c r="F79" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="G79" t="n">
+        <v>46.52</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>44378</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-12.8</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-3.64</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-9.92</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-7.04</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-6.95</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>44409</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="C81" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-2.84</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G81" t="n">
+        <v>30.08</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B82" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-1.17</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F82" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="G82" t="n">
+        <v>30.98</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>44470</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="C83" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="D83" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E83" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="F83" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="G83" t="n">
+        <v>17.42</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-4.34</v>
+      </c>
+      <c r="D84" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-1.47</v>
+      </c>
+      <c r="F84" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="G84" t="n">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>44531</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-7.85</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="F85" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="G85" t="n">
+        <v>23.54</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B86" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="C86" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-2.89</v>
+      </c>
+      <c r="E86" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="F86" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="G86" t="n">
+        <v>45.28</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="E87" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="F87" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="G87" t="n">
+        <v>36.43</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B88" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="C88" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="D88" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="E88" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="F88" t="n">
+        <v>37.77</v>
+      </c>
+      <c r="G88" t="n">
+        <v>30.25</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-6.51</v>
+      </c>
+      <c r="D89" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="E89" t="n">
+        <v>32.94</v>
+      </c>
+      <c r="F89" t="n">
+        <v>40.18</v>
+      </c>
+      <c r="G89" t="n">
+        <v>36.79</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-4.87</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="D90" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="E90" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="F90" t="n">
+        <v>32.21</v>
+      </c>
+      <c r="G90" t="n">
+        <v>51.51</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-4.88</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-7.74</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-8.23</v>
+      </c>
+      <c r="E91" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="F91" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="G91" t="n">
+        <v>29.74</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-2.24</v>
+      </c>
+      <c r="E92" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="F92" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="G92" t="n">
+        <v>37.28</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B93" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="C93" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="D93" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="E93" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="F93" t="n">
+        <v>47.22</v>
+      </c>
+      <c r="G93" t="n">
+        <v>59.86</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-3.36</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-3.71</v>
+      </c>
+      <c r="E94" t="n">
+        <v>30.08</v>
+      </c>
+      <c r="F94" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="G94" t="n">
+        <v>51.28</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>44835</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-4.44</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="E95" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="F95" t="n">
+        <v>17.41</v>
+      </c>
+      <c r="G95" t="n">
+        <v>39.07</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-7.96</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-10.38</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-8.16</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F96" t="n">
+        <v>9.64</v>
+      </c>
+      <c r="G96" t="n">
+        <v>16.59</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B97" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E97" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="F97" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="G97" t="n">
+        <v>13.29</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-12.69</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-2.72</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-3.82</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="G98" t="n">
+        <v>22.96</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B99" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="C99" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E99" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F99" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="G99" t="n">
+        <v>23.06</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-5.66</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-4.74</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-10.87</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-8.13</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-7.53</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-1.02</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="D101" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-11.88</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-11.95</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-4.21</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-3.69</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-5.47</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-7.31</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-7.18</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="C103" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-1.48</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F103" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-2.88</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-4.51</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E104" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F104" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-5.46</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-6.85</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-15.49</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-16.91</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-17.37</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-6.13</v>
+      </c>
+      <c r="D106" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-17.8</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-18.45</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-12.06</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B107" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="C107" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-3.54</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-7.79</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-3.07</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-12.94</v>
+      </c>
+      <c r="D108" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-1.83</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-6.18</v>
+      </c>
+      <c r="G108" t="n">
+        <v>17.05</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-13.93</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-8.6</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-10.02</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-5.06</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B110" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-14.08</v>
+      </c>
+      <c r="E110" t="n">
+        <v>22.76</v>
+      </c>
+      <c r="F110" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-15.95</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-2.75</v>
+      </c>
+      <c r="D111" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-6.39</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-4.65</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-8.07</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D112" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-2.54</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-0.98</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C113" t="n">
+        <v>8.28</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-4.37</v>
+      </c>
+      <c r="E113" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="F113" t="n">
+        <v>29.06</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-2.57</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-1.87</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-10.56</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E114" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="F114" t="n">
+        <v>8.54</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-10.26</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-2.75</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="D115" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-8.99</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-8.71</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-7.14</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="D116" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E116" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="F116" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D117" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E117" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F117" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="G117" t="n">
+        <v>8.3</v>
       </c>
     </row>
   </sheetData>
@@ -425,22 +3012,1420 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A2" s="1" t="n">
+        <v>42430</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="1" t="n">
+        <v>42461</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
+      <c r="A4" s="1" t="n">
+        <v>42491</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>42522</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="D5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="D6"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>42583</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9.97</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="D7"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>42614</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="D8"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>42644</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="D9"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>42675</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="D10"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>42705</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>42736</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>42767</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>42795</v>
+      </c>
+      <c r="B14" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8.28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>42826</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>42856</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8.97</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8.54</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>42887</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>42917</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>42948</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-4.21</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>42979</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-4.53</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>43009</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-5.44</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.59</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>43040</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-3.76</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-3.98</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>43070</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.68</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>43101</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8.14</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>43132</v>
+      </c>
+      <c r="B25" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>43160</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>43191</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>43221</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B29" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9.72</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B30" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>43313</v>
+      </c>
+      <c r="B31" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="C31" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="D31" t="n">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>43344</v>
+      </c>
+      <c r="B32" t="n">
+        <v>17.88</v>
+      </c>
+      <c r="C32" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="D32" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>43374</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="C33" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="D33" t="n">
+        <v>11.61</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>43405</v>
+      </c>
+      <c r="B34" t="n">
+        <v>19.82</v>
+      </c>
+      <c r="C34" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="D34" t="n">
+        <v>13.66</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>43435</v>
+      </c>
+      <c r="B35" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="C35" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="D35" t="n">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B36" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="D36" t="n">
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>43497</v>
+      </c>
+      <c r="B37" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="C37" t="n">
+        <v>17.87</v>
+      </c>
+      <c r="D37" t="n">
+        <v>15.11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>43525</v>
+      </c>
+      <c r="B38" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="C38" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="D38" t="n">
+        <v>16.02</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>43556</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="C39" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="D39" t="n">
+        <v>16.44</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>43586</v>
+      </c>
+      <c r="B40" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C40" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="D40" t="n">
+        <v>16.78</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>43617</v>
+      </c>
+      <c r="B41" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="C41" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="D41" t="n">
+        <v>14.31</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>43647</v>
+      </c>
+      <c r="B42" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="C42" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="D42" t="n">
+        <v>14.41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>43678</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="D43" t="n">
+        <v>12.92</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43709</v>
+      </c>
+      <c r="B44" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="C44" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="D44" t="n">
+        <v>12.49</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43739</v>
+      </c>
+      <c r="B45" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="C45" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="D45" t="n">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>43770</v>
+      </c>
+      <c r="B46" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C46" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="D46" t="n">
+        <v>10.06</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>43800</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="C47" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D47" t="n">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>43831</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="C48" t="n">
+        <v>6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>43862</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D49" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>43891</v>
+      </c>
+      <c r="B50" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="C50" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>43922</v>
+      </c>
+      <c r="B51" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="D51" t="n">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B52" t="n">
+        <v>9.72</v>
+      </c>
+      <c r="C52" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-1.76</v>
+      </c>
+      <c r="C53" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="D53" t="n">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C54" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B55" t="n">
+        <v>8.12</v>
+      </c>
+      <c r="C55" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>44075</v>
+      </c>
+      <c r="B56" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="D56" t="n">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>44136</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="C58" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="D59" t="n">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-8.76</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-3.84</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-3.11</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>44317</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-3.19</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>44348</v>
+      </c>
+      <c r="B65" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>44378</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>44409</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>44470</v>
+      </c>
+      <c r="B69" t="n">
+        <v>9.54</v>
+      </c>
+      <c r="C69" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B70" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="C70" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>44531</v>
+      </c>
+      <c r="B71" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="C71" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B72" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="C72" t="n">
+        <v>9.88</v>
+      </c>
+      <c r="D72" t="n">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B73" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="C73" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="D73" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B74" t="n">
+        <v>29.34</v>
+      </c>
+      <c r="C74" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="D74" t="n">
+        <v>12.19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B75" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="C75" t="n">
+        <v>22.76</v>
+      </c>
+      <c r="D75" t="n">
+        <v>14.62</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B76" t="n">
+        <v>36.64</v>
+      </c>
+      <c r="C76" t="n">
+        <v>27.82</v>
+      </c>
+      <c r="D76" t="n">
+        <v>16.87</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B77" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="C77" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="D77" t="n">
+        <v>17.91</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B78" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>28.55</v>
+      </c>
+      <c r="D78" t="n">
+        <v>19.28</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B79" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="C79" t="n">
+        <v>31.52</v>
+      </c>
+      <c r="D79" t="n">
+        <v>22.97</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B80" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C80" t="n">
+        <v>30.41</v>
+      </c>
+      <c r="D80" t="n">
+        <v>25.27</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>44835</v>
+      </c>
+      <c r="B81" t="n">
+        <v>31.44</v>
+      </c>
+      <c r="C81" t="n">
+        <v>26.68</v>
+      </c>
+      <c r="D81" t="n">
+        <v>24.78</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B82" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="C82" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="D82" t="n">
+        <v>25.15</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B83" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="C83" t="n">
+        <v>22.35</v>
+      </c>
+      <c r="D83" t="n">
+        <v>25.98</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B84" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="C84" t="n">
+        <v>19.04</v>
+      </c>
+      <c r="D84" t="n">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="C85" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="D85" t="n">
+        <v>21.55</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="C86" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="D86" t="n">
+        <v>16.88</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-5.13</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D87" t="n">
+        <v>12.59</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-8.84</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-2.35</v>
+      </c>
+      <c r="D88" t="n">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-5.13</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-3.76</v>
+      </c>
+      <c r="D89" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-2.57</v>
+      </c>
+      <c r="D90" t="n">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-3.66</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-6.33</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-11.44</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-8.31</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-1.84</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-12.25</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-3.11</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-8.66</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-6.21</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-4.33</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-5.27</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-8.47</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-6.1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-5.79</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-4.18</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-3.48</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-4.95</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-4.29</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B99" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="C99" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-1.18</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B100" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="C100" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B101" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="C101" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-0.96</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C102" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="C103" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2.02</v>
       </c>
     </row>
   </sheetData>

--- a/SUMMARY_EXPORT_DATA_DOWNLOAD.xlsx
+++ b/SUMMARY_EXPORT_DATA_DOWNLOAD.xlsx
@@ -2817,19 +2817,19 @@
         <v>45292</v>
       </c>
       <c r="B110" t="n">
-        <v>8.1</v>
+        <v>8.31</v>
       </c>
       <c r="C110" t="n">
-        <v>15.29</v>
+        <v>14.95</v>
       </c>
       <c r="D110" t="n">
-        <v>-14.08</v>
+        <v>-14.15</v>
       </c>
       <c r="E110" t="n">
         <v>22.76</v>
       </c>
       <c r="F110" t="n">
-        <v>22.31</v>
+        <v>22.01</v>
       </c>
       <c r="G110" t="n">
         <v>-15.95</v>
@@ -2840,13 +2840,13 @@
         <v>45323</v>
       </c>
       <c r="B111" t="n">
-        <v>-3.92</v>
+        <v>-3.96</v>
       </c>
       <c r="C111" t="n">
-        <v>-2.75</v>
+        <v>-2.37</v>
       </c>
       <c r="D111" t="n">
-        <v>7.77</v>
+        <v>7.86</v>
       </c>
       <c r="E111" t="n">
         <v>-6.39</v>
@@ -2863,22 +2863,22 @@
         <v>45352</v>
       </c>
       <c r="B112" t="n">
-        <v>3.89</v>
+        <v>5.22</v>
       </c>
       <c r="C112" t="n">
-        <v>0.64</v>
+        <v>2.75</v>
       </c>
       <c r="D112" t="n">
-        <v>5.21</v>
+        <v>5.59</v>
       </c>
       <c r="E112" t="n">
-        <v>-2.54</v>
+        <v>0.05</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.45</v>
+        <v>2.31</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.98</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="113">
@@ -2886,13 +2886,13 @@
         <v>45383</v>
       </c>
       <c r="B113" t="n">
-        <v>0.68</v>
+        <v>-0.48</v>
       </c>
       <c r="C113" t="n">
-        <v>8.28</v>
+        <v>6.03</v>
       </c>
       <c r="D113" t="n">
-        <v>-4.37</v>
+        <v>-4.75</v>
       </c>
       <c r="E113" t="n">
         <v>23.41</v>
@@ -2909,13 +2909,13 @@
         <v>45413</v>
       </c>
       <c r="B114" t="n">
-        <v>-1.87</v>
+        <v>-2.03</v>
       </c>
       <c r="C114" t="n">
-        <v>-10.56</v>
+        <v>-10.57</v>
       </c>
       <c r="D114" t="n">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="E114" t="n">
         <v>7.54</v>
@@ -2932,13 +2932,13 @@
         <v>45444</v>
       </c>
       <c r="B115" t="n">
-        <v>-2.75</v>
+        <v>-2.78</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.89</v>
+        <v>-0.87</v>
       </c>
       <c r="D115" t="n">
-        <v>6.5</v>
+        <v>6.54</v>
       </c>
       <c r="E115" t="n">
         <v>-8.99</v>
@@ -2955,13 +2955,13 @@
         <v>45474</v>
       </c>
       <c r="B116" t="n">
-        <v>4.77</v>
+        <v>4.83</v>
       </c>
       <c r="C116" t="n">
-        <v>2.44</v>
+        <v>3.25</v>
       </c>
       <c r="D116" t="n">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="E116" t="n">
         <v>13.15</v>
@@ -2978,22 +2978,41 @@
         <v>45505</v>
       </c>
       <c r="B117" t="n">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="C117" t="n">
         <v>1.87</v>
       </c>
       <c r="D117" t="n">
-        <v>3.78</v>
+        <v>6.14</v>
       </c>
       <c r="E117" t="n">
-        <v>8.5</v>
+        <v>8.39</v>
       </c>
       <c r="F117" t="n">
-        <v>7.49</v>
+        <v>7.44</v>
       </c>
       <c r="G117" t="n">
-        <v>8.3</v>
+        <v>11.11</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B118"/>
+      <c r="C118" t="n">
+        <v>22.64</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-12.11</v>
+      </c>
+      <c r="E118"/>
+      <c r="F118" t="n">
+        <v>40.35</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-5.42</v>
       </c>
     </row>
   </sheetData>
@@ -4321,13 +4340,13 @@
         <v>45292</v>
       </c>
       <c r="B96" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="C96" t="n">
-        <v>-5.79</v>
+        <v>-5.84</v>
       </c>
       <c r="D96" t="n">
-        <v>-4.18</v>
+        <v>-4.21</v>
       </c>
     </row>
     <row r="97">
@@ -4335,13 +4354,13 @@
         <v>45323</v>
       </c>
       <c r="B97" t="n">
-        <v>2.41</v>
+        <v>2.32</v>
       </c>
       <c r="C97" t="n">
-        <v>-3.48</v>
+        <v>-3.53</v>
       </c>
       <c r="D97" t="n">
-        <v>-4.95</v>
+        <v>-4.97</v>
       </c>
     </row>
     <row r="98">
@@ -4349,13 +4368,13 @@
         <v>45352</v>
       </c>
       <c r="B98" t="n">
-        <v>5.1</v>
+        <v>6.02</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.04</v>
+        <v>0.43</v>
       </c>
       <c r="D98" t="n">
-        <v>-4.29</v>
+        <v>-4.06</v>
       </c>
     </row>
     <row r="99">
@@ -4363,13 +4382,13 @@
         <v>45383</v>
       </c>
       <c r="B99" t="n">
-        <v>7.01</v>
+        <v>8.03</v>
       </c>
       <c r="C99" t="n">
-        <v>4.48</v>
+        <v>4.95</v>
       </c>
       <c r="D99" t="n">
-        <v>-1.18</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="100">
@@ -4377,13 +4396,13 @@
         <v>45413</v>
       </c>
       <c r="B100" t="n">
-        <v>11.37</v>
+        <v>12.39</v>
       </c>
       <c r="C100" t="n">
-        <v>7.03</v>
+        <v>7.51</v>
       </c>
       <c r="D100" t="n">
-        <v>0.15</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="101">
@@ -4394,10 +4413,10 @@
         <v>8.43</v>
       </c>
       <c r="C101" t="n">
-        <v>6.75</v>
+        <v>7.21</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.96</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="102">
@@ -4408,10 +4427,10 @@
         <v>4.14</v>
       </c>
       <c r="C102" t="n">
-        <v>5.57</v>
+        <v>6.09</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.19</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="103">
@@ -4419,13 +4438,27 @@
         <v>45505</v>
       </c>
       <c r="B103" t="n">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="C103" t="n">
-        <v>7.58</v>
+        <v>8.08</v>
       </c>
       <c r="D103" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B104" t="n">
+        <v>20.74</v>
+      </c>
+      <c r="C104" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="D104" t="n">
+        <v>7.31</v>
       </c>
     </row>
   </sheetData>

--- a/SUMMARY_EXPORT_DATA_DOWNLOAD.xlsx
+++ b/SUMMARY_EXPORT_DATA_DOWNLOAD.xlsx
@@ -2886,22 +2886,22 @@
         <v>45383</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.48</v>
+        <v>1.16</v>
       </c>
       <c r="C113" t="n">
-        <v>6.03</v>
+        <v>5.27</v>
       </c>
       <c r="D113" t="n">
-        <v>-4.75</v>
+        <v>-2.74</v>
       </c>
       <c r="E113" t="n">
-        <v>23.41</v>
+        <v>25.86</v>
       </c>
       <c r="F113" t="n">
-        <v>29.06</v>
+        <v>27.97</v>
       </c>
       <c r="G113" t="n">
-        <v>-2.57</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="114">
@@ -2909,13 +2909,13 @@
         <v>45413</v>
       </c>
       <c r="B114" t="n">
-        <v>-2.03</v>
+        <v>-2.72</v>
       </c>
       <c r="C114" t="n">
-        <v>-10.57</v>
+        <v>-9.85</v>
       </c>
       <c r="D114" t="n">
-        <v>0.24</v>
+        <v>-1.77</v>
       </c>
       <c r="E114" t="n">
         <v>7.54</v>
@@ -2932,13 +2932,13 @@
         <v>45444</v>
       </c>
       <c r="B115" t="n">
-        <v>-2.78</v>
+        <v>-2.45</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.87</v>
+        <v>-0.85</v>
       </c>
       <c r="D115" t="n">
-        <v>6.54</v>
+        <v>6.35</v>
       </c>
       <c r="E115" t="n">
         <v>-8.99</v>
@@ -2955,13 +2955,13 @@
         <v>45474</v>
       </c>
       <c r="B116" t="n">
-        <v>4.83</v>
+        <v>5.91</v>
       </c>
       <c r="C116" t="n">
-        <v>3.25</v>
+        <v>3.36</v>
       </c>
       <c r="D116" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="E116" t="n">
         <v>13.15</v>
@@ -2978,13 +2978,13 @@
         <v>45505</v>
       </c>
       <c r="B117" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="C117" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="D117" t="n">
-        <v>6.14</v>
+        <v>6.35</v>
       </c>
       <c r="E117" t="n">
         <v>8.39</v>
@@ -3000,19 +3000,46 @@
       <c r="A118" s="1" t="n">
         <v>45536</v>
       </c>
-      <c r="B118"/>
+      <c r="B118" t="n">
+        <v>19.76</v>
+      </c>
       <c r="C118" t="n">
-        <v>22.64</v>
+        <v>23.75</v>
       </c>
       <c r="D118" t="n">
-        <v>-12.11</v>
-      </c>
-      <c r="E118"/>
+        <v>-11.65</v>
+      </c>
+      <c r="E118" t="n">
+        <v>41.36</v>
+      </c>
       <c r="F118" t="n">
-        <v>40.35</v>
+        <v>41.83</v>
       </c>
       <c r="G118" t="n">
-        <v>-5.42</v>
+        <v>-4.7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-9.82</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-7.06</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-2.95</v>
+      </c>
+      <c r="E119" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="F119" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-1.85</v>
       </c>
     </row>
   </sheetData>
@@ -4382,13 +4409,13 @@
         <v>45383</v>
       </c>
       <c r="B99" t="n">
-        <v>8.03</v>
+        <v>7.7</v>
       </c>
       <c r="C99" t="n">
-        <v>4.95</v>
+        <v>4.79</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.95</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="100">
@@ -4396,13 +4423,13 @@
         <v>45413</v>
       </c>
       <c r="B100" t="n">
-        <v>12.39</v>
+        <v>12.07</v>
       </c>
       <c r="C100" t="n">
-        <v>7.51</v>
+        <v>7.34</v>
       </c>
       <c r="D100" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="101">
@@ -4410,13 +4437,13 @@
         <v>45444</v>
       </c>
       <c r="B101" t="n">
-        <v>8.43</v>
+        <v>8.1</v>
       </c>
       <c r="C101" t="n">
-        <v>7.21</v>
+        <v>7.05</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.73</v>
+        <v>-0.81</v>
       </c>
     </row>
     <row r="102">
@@ -4427,10 +4454,10 @@
         <v>4.14</v>
       </c>
       <c r="C102" t="n">
-        <v>6.09</v>
+        <v>5.92</v>
       </c>
       <c r="D102" t="n">
-        <v>0.03</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="103">
@@ -4441,10 +4468,10 @@
         <v>3.74</v>
       </c>
       <c r="C103" t="n">
-        <v>8.08</v>
+        <v>7.92</v>
       </c>
       <c r="D103" t="n">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="104">
@@ -4452,13 +4479,27 @@
         <v>45536</v>
       </c>
       <c r="B104" t="n">
-        <v>20.74</v>
+        <v>21.23</v>
       </c>
       <c r="C104" t="n">
-        <v>14.42</v>
+        <v>14.49</v>
       </c>
       <c r="D104" t="n">
-        <v>7.31</v>
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B105" t="n">
+        <v>23.22</v>
+      </c>
+      <c r="C105" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="D105" t="n">
+        <v>9.21</v>
       </c>
     </row>
   </sheetData>

--- a/SUMMARY_EXPORT_DATA_DOWNLOAD.xlsx
+++ b/SUMMARY_EXPORT_DATA_DOWNLOAD.xlsx
@@ -2909,22 +2909,22 @@
         <v>45413</v>
       </c>
       <c r="B114" t="n">
-        <v>-2.72</v>
+        <v>-2.75</v>
       </c>
       <c r="C114" t="n">
-        <v>-9.85</v>
+        <v>-9.76</v>
       </c>
       <c r="D114" t="n">
-        <v>-1.77</v>
+        <v>-1.92</v>
       </c>
       <c r="E114" t="n">
-        <v>7.54</v>
+        <v>7.43</v>
       </c>
       <c r="F114" t="n">
-        <v>8.54</v>
+        <v>8.66</v>
       </c>
       <c r="G114" t="n">
-        <v>-10.26</v>
+        <v>-10.37</v>
       </c>
     </row>
     <row r="115">
@@ -2932,13 +2932,13 @@
         <v>45444</v>
       </c>
       <c r="B115" t="n">
-        <v>-2.45</v>
+        <v>-2.27</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.85</v>
+        <v>-0.94</v>
       </c>
       <c r="D115" t="n">
-        <v>6.35</v>
+        <v>6.49</v>
       </c>
       <c r="E115" t="n">
         <v>-8.99</v>
@@ -2955,13 +2955,13 @@
         <v>45474</v>
       </c>
       <c r="B116" t="n">
-        <v>5.91</v>
+        <v>6</v>
       </c>
       <c r="C116" t="n">
         <v>3.36</v>
       </c>
       <c r="D116" t="n">
-        <v>3.34</v>
+        <v>3.25</v>
       </c>
       <c r="E116" t="n">
         <v>13.15</v>
@@ -2978,13 +2978,13 @@
         <v>45505</v>
       </c>
       <c r="B117" t="n">
-        <v>0.84</v>
+        <v>0.97</v>
       </c>
       <c r="C117" t="n">
         <v>1.91</v>
       </c>
       <c r="D117" t="n">
-        <v>6.35</v>
+        <v>6.53</v>
       </c>
       <c r="E117" t="n">
         <v>8.39</v>
@@ -3001,13 +3001,13 @@
         <v>45536</v>
       </c>
       <c r="B118" t="n">
-        <v>19.76</v>
+        <v>20.07</v>
       </c>
       <c r="C118" t="n">
-        <v>23.75</v>
+        <v>23.73</v>
       </c>
       <c r="D118" t="n">
-        <v>-11.65</v>
+        <v>-11.74</v>
       </c>
       <c r="E118" t="n">
         <v>41.36</v>
@@ -3024,22 +3024,45 @@
         <v>45566</v>
       </c>
       <c r="B119" t="n">
-        <v>-9.82</v>
+        <v>-9.5</v>
       </c>
       <c r="C119" t="n">
-        <v>-7.06</v>
+        <v>-6.85</v>
       </c>
       <c r="D119" t="n">
-        <v>-2.95</v>
+        <v>-3.42</v>
       </c>
       <c r="E119" t="n">
-        <v>24.9</v>
+        <v>25.73</v>
       </c>
       <c r="F119" t="n">
-        <v>20.9</v>
+        <v>21.42</v>
       </c>
       <c r="G119" t="n">
-        <v>-1.85</v>
+        <v>-2.37</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-4.42</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="E120" t="n">
+        <v>26.54</v>
+      </c>
+      <c r="F120" t="n">
+        <v>27.52</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-18.48</v>
       </c>
     </row>
   </sheetData>
@@ -4423,13 +4446,13 @@
         <v>45413</v>
       </c>
       <c r="B100" t="n">
-        <v>12.07</v>
+        <v>12.1</v>
       </c>
       <c r="C100" t="n">
-        <v>7.34</v>
+        <v>7.36</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="101">
@@ -4437,13 +4460,13 @@
         <v>45444</v>
       </c>
       <c r="B101" t="n">
-        <v>8.1</v>
+        <v>8.14</v>
       </c>
       <c r="C101" t="n">
-        <v>7.05</v>
+        <v>7.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.81</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="102">
@@ -4451,13 +4474,13 @@
         <v>45474</v>
       </c>
       <c r="B102" t="n">
-        <v>4.14</v>
+        <v>4.18</v>
       </c>
       <c r="C102" t="n">
-        <v>5.92</v>
+        <v>5.94</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="103">
@@ -4468,10 +4491,10 @@
         <v>3.74</v>
       </c>
       <c r="C103" t="n">
-        <v>7.92</v>
+        <v>7.94</v>
       </c>
       <c r="D103" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="104">
@@ -4482,10 +4505,10 @@
         <v>21.23</v>
       </c>
       <c r="C104" t="n">
-        <v>14.49</v>
+        <v>14.51</v>
       </c>
       <c r="D104" t="n">
-        <v>7.35</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="105">
@@ -4493,13 +4516,27 @@
         <v>45566</v>
       </c>
       <c r="B105" t="n">
-        <v>23.22</v>
+        <v>23.4</v>
       </c>
       <c r="C105" t="n">
-        <v>13.57</v>
+        <v>13.68</v>
       </c>
       <c r="D105" t="n">
-        <v>9.21</v>
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B106" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="C106" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="D106" t="n">
+        <v>12.09</v>
       </c>
     </row>
   </sheetData>

--- a/SUMMARY_EXPORT_DATA_DOWNLOAD.xlsx
+++ b/SUMMARY_EXPORT_DATA_DOWNLOAD.xlsx
@@ -2817,16 +2817,16 @@
         <v>45292</v>
       </c>
       <c r="B110" t="n">
-        <v>8.31</v>
+        <v>7.93</v>
       </c>
       <c r="C110" t="n">
-        <v>14.95</v>
+        <v>15.16</v>
       </c>
       <c r="D110" t="n">
-        <v>-14.15</v>
+        <v>-12.49</v>
       </c>
       <c r="E110" t="n">
-        <v>22.76</v>
+        <v>19.24</v>
       </c>
       <c r="F110" t="n">
         <v>22.01</v>
@@ -2840,16 +2840,16 @@
         <v>45323</v>
       </c>
       <c r="B111" t="n">
-        <v>-3.96</v>
+        <v>-4.26</v>
       </c>
       <c r="C111" t="n">
-        <v>-2.37</v>
+        <v>-2.36</v>
       </c>
       <c r="D111" t="n">
-        <v>7.86</v>
+        <v>6.61</v>
       </c>
       <c r="E111" t="n">
-        <v>-6.39</v>
+        <v>-8.85</v>
       </c>
       <c r="F111" t="n">
         <v>-4.65</v>
@@ -2863,16 +2863,16 @@
         <v>45352</v>
       </c>
       <c r="B112" t="n">
-        <v>5.22</v>
+        <v>2.74</v>
       </c>
       <c r="C112" t="n">
-        <v>2.75</v>
+        <v>2.66</v>
       </c>
       <c r="D112" t="n">
-        <v>5.59</v>
+        <v>4.91</v>
       </c>
       <c r="E112" t="n">
-        <v>0.05</v>
+        <v>-2.58</v>
       </c>
       <c r="F112" t="n">
         <v>2.31</v>
@@ -2886,16 +2886,16 @@
         <v>45383</v>
       </c>
       <c r="B113" t="n">
-        <v>1.16</v>
+        <v>0.9</v>
       </c>
       <c r="C113" t="n">
-        <v>5.27</v>
+        <v>5.32</v>
       </c>
       <c r="D113" t="n">
-        <v>-2.74</v>
+        <v>-3.22</v>
       </c>
       <c r="E113" t="n">
-        <v>25.86</v>
+        <v>22.55</v>
       </c>
       <c r="F113" t="n">
         <v>27.97</v>
@@ -2909,16 +2909,16 @@
         <v>45413</v>
       </c>
       <c r="B114" t="n">
-        <v>-2.75</v>
+        <v>-2.26</v>
       </c>
       <c r="C114" t="n">
-        <v>-9.76</v>
+        <v>-9.95</v>
       </c>
       <c r="D114" t="n">
-        <v>-1.92</v>
+        <v>-1.83</v>
       </c>
       <c r="E114" t="n">
-        <v>7.43</v>
+        <v>4.53</v>
       </c>
       <c r="F114" t="n">
         <v>8.66</v>
@@ -2932,22 +2932,22 @@
         <v>45444</v>
       </c>
       <c r="B115" t="n">
-        <v>-2.27</v>
+        <v>-2.94</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.94</v>
+        <v>-1.16</v>
       </c>
       <c r="D115" t="n">
-        <v>6.49</v>
+        <v>6.98</v>
       </c>
       <c r="E115" t="n">
-        <v>-8.99</v>
+        <v>-11.68</v>
       </c>
       <c r="F115" t="n">
-        <v>-8.71</v>
+        <v>-8.94</v>
       </c>
       <c r="G115" t="n">
-        <v>-7.14</v>
+        <v>-6.89</v>
       </c>
     </row>
     <row r="116">
@@ -2955,22 +2955,22 @@
         <v>45474</v>
       </c>
       <c r="B116" t="n">
-        <v>6</v>
+        <v>7.47</v>
       </c>
       <c r="C116" t="n">
-        <v>3.36</v>
+        <v>4.84</v>
       </c>
       <c r="D116" t="n">
-        <v>3.25</v>
+        <v>8.3</v>
       </c>
       <c r="E116" t="n">
-        <v>13.15</v>
+        <v>11.62</v>
       </c>
       <c r="F116" t="n">
-        <v>14.58</v>
+        <v>16.15</v>
       </c>
       <c r="G116" t="n">
-        <v>4.67</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="117">
@@ -2978,22 +2978,22 @@
         <v>45505</v>
       </c>
       <c r="B117" t="n">
-        <v>0.97</v>
+        <v>-0.02</v>
       </c>
       <c r="C117" t="n">
-        <v>1.91</v>
+        <v>0.79</v>
       </c>
       <c r="D117" t="n">
-        <v>6.53</v>
+        <v>-2.35</v>
       </c>
       <c r="E117" t="n">
-        <v>8.39</v>
+        <v>6.51</v>
       </c>
       <c r="F117" t="n">
-        <v>7.44</v>
+        <v>7.78</v>
       </c>
       <c r="G117" t="n">
-        <v>11.11</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="118">
@@ -3001,22 +3001,22 @@
         <v>45536</v>
       </c>
       <c r="B118" t="n">
-        <v>20.07</v>
+        <v>17.82</v>
       </c>
       <c r="C118" t="n">
-        <v>23.73</v>
+        <v>22.26</v>
       </c>
       <c r="D118" t="n">
-        <v>-11.74</v>
+        <v>-8.91</v>
       </c>
       <c r="E118" t="n">
-        <v>41.36</v>
+        <v>35.86</v>
       </c>
       <c r="F118" t="n">
-        <v>41.83</v>
+        <v>40</v>
       </c>
       <c r="G118" t="n">
-        <v>-4.7</v>
+        <v>-5.29</v>
       </c>
     </row>
     <row r="119">
@@ -3024,16 +3024,16 @@
         <v>45566</v>
       </c>
       <c r="B119" t="n">
-        <v>-9.5</v>
+        <v>-8.31</v>
       </c>
       <c r="C119" t="n">
-        <v>-6.85</v>
+        <v>-5.71</v>
       </c>
       <c r="D119" t="n">
-        <v>-3.42</v>
+        <v>-2.88</v>
       </c>
       <c r="E119" t="n">
-        <v>25.73</v>
+        <v>21.73</v>
       </c>
       <c r="F119" t="n">
         <v>21.42</v>
@@ -3047,22 +3047,114 @@
         <v>45597</v>
       </c>
       <c r="B120" t="n">
-        <v>3.07</v>
+        <v>4.69</v>
       </c>
       <c r="C120" t="n">
-        <v>-4.42</v>
+        <v>-2.46</v>
       </c>
       <c r="D120" t="n">
-        <v>4.65</v>
+        <v>7.56</v>
       </c>
       <c r="E120" t="n">
-        <v>26.54</v>
+        <v>26.86</v>
       </c>
       <c r="F120" t="n">
-        <v>27.52</v>
+        <v>31.34</v>
       </c>
       <c r="G120" t="n">
-        <v>-18.48</v>
+        <v>-16.15</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-8.36</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-10.04</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-3.07</v>
+      </c>
+      <c r="E121" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="F121" t="n">
+        <v>17.27</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-1.23</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B122" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="C122" t="n">
+        <v>37.01</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="E122" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="F122" t="n">
+        <v>36.83</v>
+      </c>
+      <c r="G122" t="n">
+        <v>10.82</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B123" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D123" t="n">
+        <v>20.77</v>
+      </c>
+      <c r="E123" t="n">
+        <v>66.87</v>
+      </c>
+      <c r="F123" t="n">
+        <v>58.24</v>
+      </c>
+      <c r="G123" t="n">
+        <v>22.15</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B124" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="C124" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-11.9</v>
+      </c>
+      <c r="E124" t="n">
+        <v>101.78</v>
+      </c>
+      <c r="F124" t="n">
+        <v>94.31</v>
+      </c>
+      <c r="G124" t="n">
+        <v>5.43</v>
       </c>
     </row>
   </sheetData>
@@ -4460,13 +4552,13 @@
         <v>45444</v>
       </c>
       <c r="B101" t="n">
-        <v>8.14</v>
+        <v>8.05</v>
       </c>
       <c r="C101" t="n">
-        <v>7.07</v>
+        <v>7.03</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.8</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="102">
@@ -4474,13 +4566,13 @@
         <v>45474</v>
       </c>
       <c r="B102" t="n">
-        <v>4.18</v>
+        <v>4.58</v>
       </c>
       <c r="C102" t="n">
-        <v>5.94</v>
+        <v>6.14</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="103">
@@ -4488,13 +4580,13 @@
         <v>45505</v>
       </c>
       <c r="B103" t="n">
-        <v>3.74</v>
+        <v>4.26</v>
       </c>
       <c r="C103" t="n">
-        <v>7.94</v>
+        <v>8.2</v>
       </c>
       <c r="D103" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="104">
@@ -4502,13 +4594,13 @@
         <v>45536</v>
       </c>
       <c r="B104" t="n">
-        <v>21.23</v>
+        <v>21.26</v>
       </c>
       <c r="C104" t="n">
-        <v>14.51</v>
+        <v>14.48</v>
       </c>
       <c r="D104" t="n">
-        <v>7.36</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="105">
@@ -4516,13 +4608,13 @@
         <v>45566</v>
       </c>
       <c r="B105" t="n">
-        <v>23.4</v>
+        <v>22.93</v>
       </c>
       <c r="C105" t="n">
-        <v>13.68</v>
+        <v>13.65</v>
       </c>
       <c r="D105" t="n">
-        <v>9.27</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="106">
@@ -4530,13 +4622,69 @@
         <v>45597</v>
       </c>
       <c r="B106" t="n">
-        <v>29.94</v>
+        <v>30.6</v>
       </c>
       <c r="C106" t="n">
-        <v>16.76</v>
+        <v>17.34</v>
       </c>
       <c r="D106" t="n">
-        <v>12.09</v>
+        <v>12.39</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B107" t="n">
+        <v>23.58</v>
+      </c>
+      <c r="C107" t="n">
+        <v>22.42</v>
+      </c>
+      <c r="D107" t="n">
+        <v>14.48</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B108" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C108" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="D108" t="n">
+        <v>16.02</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B109" t="n">
+        <v>38.31</v>
+      </c>
+      <c r="C109" t="n">
+        <v>34.42</v>
+      </c>
+      <c r="D109" t="n">
+        <v>21.14</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B110" t="n">
+        <v>63.55</v>
+      </c>
+      <c r="C110" t="n">
+        <v>44.88</v>
+      </c>
+      <c r="D110" t="n">
+        <v>29.96</v>
       </c>
     </row>
   </sheetData>

--- a/SUMMARY_EXPORT_DATA_DOWNLOAD.xlsx
+++ b/SUMMARY_EXPORT_DATA_DOWNLOAD.xlsx
@@ -3024,22 +3024,22 @@
         <v>45566</v>
       </c>
       <c r="B119" t="n">
-        <v>-8.31</v>
+        <v>-8.38</v>
       </c>
       <c r="C119" t="n">
-        <v>-5.71</v>
+        <v>-5.61</v>
       </c>
       <c r="D119" t="n">
-        <v>-2.88</v>
+        <v>-2.69</v>
       </c>
       <c r="E119" t="n">
         <v>21.73</v>
       </c>
       <c r="F119" t="n">
-        <v>21.42</v>
+        <v>20.81</v>
       </c>
       <c r="G119" t="n">
-        <v>-2.37</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="120">
@@ -3047,13 +3047,13 @@
         <v>45597</v>
       </c>
       <c r="B120" t="n">
-        <v>4.69</v>
+        <v>5.11</v>
       </c>
       <c r="C120" t="n">
-        <v>-2.46</v>
+        <v>-2.61</v>
       </c>
       <c r="D120" t="n">
-        <v>7.56</v>
+        <v>7.35</v>
       </c>
       <c r="E120" t="n">
         <v>26.86</v>
@@ -3070,13 +3070,13 @@
         <v>45627</v>
       </c>
       <c r="B121" t="n">
-        <v>-8.36</v>
+        <v>-8.99</v>
       </c>
       <c r="C121" t="n">
-        <v>-10.04</v>
+        <v>-10.02</v>
       </c>
       <c r="D121" t="n">
-        <v>-3.07</v>
+        <v>-3.08</v>
       </c>
       <c r="E121" t="n">
         <v>15.27</v>
@@ -3093,13 +3093,13 @@
         <v>45658</v>
       </c>
       <c r="B122" t="n">
-        <v>33.67</v>
+        <v>37.07</v>
       </c>
       <c r="C122" t="n">
-        <v>37.01</v>
+        <v>37.42</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.05</v>
+        <v>-0.49</v>
       </c>
       <c r="E122" t="n">
         <v>39.65</v>
@@ -3116,13 +3116,13 @@
         <v>45689</v>
       </c>
       <c r="B123" t="n">
-        <v>9.69</v>
+        <v>0.05</v>
       </c>
       <c r="C123" t="n">
-        <v>4.76</v>
+        <v>4.08</v>
       </c>
       <c r="D123" t="n">
-        <v>20.77</v>
+        <v>21.28</v>
       </c>
       <c r="E123" t="n">
         <v>66.87</v>
@@ -3139,22 +3139,45 @@
         <v>45717</v>
       </c>
       <c r="B124" t="n">
-        <v>21.82</v>
+        <v>36.75</v>
       </c>
       <c r="C124" t="n">
-        <v>34.64</v>
+        <v>38.11</v>
       </c>
       <c r="D124" t="n">
-        <v>-11.9</v>
+        <v>-7.73</v>
       </c>
       <c r="E124" t="n">
-        <v>101.78</v>
+        <v>104.88</v>
       </c>
       <c r="F124" t="n">
-        <v>94.31</v>
+        <v>98.68</v>
       </c>
       <c r="G124" t="n">
-        <v>5.43</v>
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-36.96</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-39.3</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-11.95</v>
+      </c>
+      <c r="E125" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="F125" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-0.17</v>
       </c>
     </row>
   </sheetData>
@@ -4608,13 +4631,13 @@
         <v>45566</v>
       </c>
       <c r="B105" t="n">
-        <v>22.93</v>
+        <v>22.71</v>
       </c>
       <c r="C105" t="n">
-        <v>13.65</v>
+        <v>13.55</v>
       </c>
       <c r="D105" t="n">
-        <v>9.25</v>
+        <v>9.2</v>
       </c>
     </row>
     <row r="106">
@@ -4622,13 +4645,13 @@
         <v>45597</v>
       </c>
       <c r="B106" t="n">
-        <v>30.6</v>
+        <v>30.38</v>
       </c>
       <c r="C106" t="n">
-        <v>17.34</v>
+        <v>17.23</v>
       </c>
       <c r="D106" t="n">
-        <v>12.39</v>
+        <v>12.33</v>
       </c>
     </row>
     <row r="107">
@@ -4636,13 +4659,13 @@
         <v>45627</v>
       </c>
       <c r="B107" t="n">
-        <v>23.58</v>
+        <v>23.35</v>
       </c>
       <c r="C107" t="n">
-        <v>22.42</v>
+        <v>22.3</v>
       </c>
       <c r="D107" t="n">
-        <v>14.48</v>
+        <v>14.43</v>
       </c>
     </row>
     <row r="108">
@@ -4653,10 +4676,10 @@
         <v>29.5</v>
       </c>
       <c r="C108" t="n">
-        <v>26.19</v>
+        <v>26.08</v>
       </c>
       <c r="D108" t="n">
-        <v>16.02</v>
+        <v>15.96</v>
       </c>
     </row>
     <row r="109">
@@ -4667,10 +4690,10 @@
         <v>38.31</v>
       </c>
       <c r="C109" t="n">
-        <v>34.42</v>
+        <v>34.31</v>
       </c>
       <c r="D109" t="n">
-        <v>21.14</v>
+        <v>21.09</v>
       </c>
     </row>
     <row r="110">
@@ -4678,13 +4701,27 @@
         <v>45717</v>
       </c>
       <c r="B110" t="n">
-        <v>63.55</v>
+        <v>65.1</v>
       </c>
       <c r="C110" t="n">
-        <v>44.88</v>
+        <v>45.6</v>
       </c>
       <c r="D110" t="n">
-        <v>29.96</v>
+        <v>30.33</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B111" t="n">
+        <v>56.23</v>
+      </c>
+      <c r="C111" t="n">
+        <v>43.61</v>
+      </c>
+      <c r="D111" t="n">
+        <v>28.81</v>
       </c>
     </row>
   </sheetData>

--- a/SUMMARY_EXPORT_DATA_DOWNLOAD.xlsx
+++ b/SUMMARY_EXPORT_DATA_DOWNLOAD.xlsx
@@ -3047,22 +3047,22 @@
         <v>45597</v>
       </c>
       <c r="B120" t="n">
-        <v>5.11</v>
+        <v>5.04</v>
       </c>
       <c r="C120" t="n">
-        <v>-2.61</v>
+        <v>-4.72</v>
       </c>
       <c r="D120" t="n">
-        <v>7.35</v>
+        <v>5.87</v>
       </c>
       <c r="E120" t="n">
         <v>26.86</v>
       </c>
       <c r="F120" t="n">
-        <v>31.34</v>
+        <v>28.11</v>
       </c>
       <c r="G120" t="n">
-        <v>-16.15</v>
+        <v>-17.35</v>
       </c>
     </row>
     <row r="121">
@@ -3070,13 +3070,13 @@
         <v>45627</v>
       </c>
       <c r="B121" t="n">
-        <v>-8.99</v>
+        <v>-9.46</v>
       </c>
       <c r="C121" t="n">
-        <v>-10.02</v>
+        <v>-7.83</v>
       </c>
       <c r="D121" t="n">
-        <v>-3.08</v>
+        <v>-1.95</v>
       </c>
       <c r="E121" t="n">
         <v>15.27</v>
@@ -3093,13 +3093,13 @@
         <v>45658</v>
       </c>
       <c r="B122" t="n">
-        <v>37.07</v>
+        <v>31.39</v>
       </c>
       <c r="C122" t="n">
-        <v>37.42</v>
+        <v>37.14</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.49</v>
+        <v>-0.42</v>
       </c>
       <c r="E122" t="n">
         <v>39.65</v>
@@ -3116,13 +3116,13 @@
         <v>45689</v>
       </c>
       <c r="B123" t="n">
-        <v>0.05</v>
+        <v>4.95</v>
       </c>
       <c r="C123" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="D123" t="n">
-        <v>21.28</v>
+        <v>21.31</v>
       </c>
       <c r="E123" t="n">
         <v>66.87</v>
@@ -3139,13 +3139,13 @@
         <v>45717</v>
       </c>
       <c r="B124" t="n">
-        <v>36.75</v>
+        <v>36.78</v>
       </c>
       <c r="C124" t="n">
-        <v>38.11</v>
+        <v>37.9</v>
       </c>
       <c r="D124" t="n">
-        <v>-7.73</v>
+        <v>-7.77</v>
       </c>
       <c r="E124" t="n">
         <v>104.88</v>
@@ -3162,22 +3162,45 @@
         <v>45748</v>
       </c>
       <c r="B125" t="n">
-        <v>-36.96</v>
+        <v>-34.25</v>
       </c>
       <c r="C125" t="n">
-        <v>-39.3</v>
+        <v>-39.01</v>
       </c>
       <c r="D125" t="n">
-        <v>-11.95</v>
+        <v>-12.82</v>
       </c>
       <c r="E125" t="n">
-        <v>17.77</v>
+        <v>18.34</v>
       </c>
       <c r="F125" t="n">
-        <v>12.65</v>
+        <v>12.68</v>
       </c>
       <c r="G125" t="n">
-        <v>-0.17</v>
+        <v>-1.53</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B126" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C126" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="E126" t="n">
+        <v>34.65</v>
+      </c>
+      <c r="F126" t="n">
+        <v>29.34</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-2.68</v>
       </c>
     </row>
   </sheetData>
@@ -4645,13 +4668,13 @@
         <v>45597</v>
       </c>
       <c r="B106" t="n">
-        <v>30.38</v>
+        <v>29.33</v>
       </c>
       <c r="C106" t="n">
-        <v>17.23</v>
+        <v>16.71</v>
       </c>
       <c r="D106" t="n">
-        <v>12.33</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="107">
@@ -4659,13 +4682,13 @@
         <v>45627</v>
       </c>
       <c r="B107" t="n">
-        <v>23.35</v>
+        <v>22.26</v>
       </c>
       <c r="C107" t="n">
-        <v>22.3</v>
+        <v>21.76</v>
       </c>
       <c r="D107" t="n">
-        <v>14.43</v>
+        <v>14.16</v>
       </c>
     </row>
     <row r="108">
@@ -4673,13 +4696,13 @@
         <v>45658</v>
       </c>
       <c r="B108" t="n">
-        <v>29.5</v>
+        <v>28.43</v>
       </c>
       <c r="C108" t="n">
-        <v>26.08</v>
+        <v>25.55</v>
       </c>
       <c r="D108" t="n">
-        <v>15.96</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="109">
@@ -4690,10 +4713,10 @@
         <v>38.31</v>
       </c>
       <c r="C109" t="n">
-        <v>34.31</v>
+        <v>33.78</v>
       </c>
       <c r="D109" t="n">
-        <v>21.09</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="110">
@@ -4704,10 +4727,10 @@
         <v>65.1</v>
       </c>
       <c r="C110" t="n">
-        <v>45.6</v>
+        <v>45.08</v>
       </c>
       <c r="D110" t="n">
-        <v>30.33</v>
+        <v>30.06</v>
       </c>
     </row>
     <row r="111">
@@ -4715,13 +4738,27 @@
         <v>45748</v>
       </c>
       <c r="B111" t="n">
-        <v>56.23</v>
+        <v>56.24</v>
       </c>
       <c r="C111" t="n">
-        <v>43.61</v>
+        <v>43.11</v>
       </c>
       <c r="D111" t="n">
-        <v>28.81</v>
+        <v>28.56</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B112" t="n">
+        <v>47.11</v>
+      </c>
+      <c r="C112" t="n">
+        <v>43.04</v>
+      </c>
+      <c r="D112" t="n">
+        <v>30.24</v>
       </c>
     </row>
   </sheetData>

--- a/SUMMARY_EXPORT_DATA_DOWNLOAD.xlsx
+++ b/SUMMARY_EXPORT_DATA_DOWNLOAD.xlsx
@@ -3070,22 +3070,22 @@
         <v>45627</v>
       </c>
       <c r="B121" t="n">
-        <v>-9.46</v>
+        <v>-9.19</v>
       </c>
       <c r="C121" t="n">
-        <v>-7.83</v>
+        <v>-9.61</v>
       </c>
       <c r="D121" t="n">
-        <v>-1.95</v>
+        <v>-1.55</v>
       </c>
       <c r="E121" t="n">
         <v>15.27</v>
       </c>
       <c r="F121" t="n">
-        <v>17.27</v>
+        <v>14.18</v>
       </c>
       <c r="G121" t="n">
-        <v>-1.23</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="122">
@@ -3093,13 +3093,13 @@
         <v>45658</v>
       </c>
       <c r="B122" t="n">
-        <v>31.39</v>
+        <v>39.4</v>
       </c>
       <c r="C122" t="n">
-        <v>37.14</v>
+        <v>40.62</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.42</v>
+        <v>-0.95</v>
       </c>
       <c r="E122" t="n">
         <v>39.65</v>
@@ -3116,13 +3116,13 @@
         <v>45689</v>
       </c>
       <c r="B123" t="n">
-        <v>4.95</v>
+        <v>-1.39</v>
       </c>
       <c r="C123" t="n">
-        <v>4.09</v>
+        <v>3.44</v>
       </c>
       <c r="D123" t="n">
-        <v>21.31</v>
+        <v>21.55</v>
       </c>
       <c r="E123" t="n">
         <v>66.87</v>
@@ -3139,13 +3139,13 @@
         <v>45717</v>
       </c>
       <c r="B124" t="n">
-        <v>36.78</v>
+        <v>36.8</v>
       </c>
       <c r="C124" t="n">
-        <v>37.9</v>
+        <v>38.27</v>
       </c>
       <c r="D124" t="n">
-        <v>-7.77</v>
+        <v>-7.81</v>
       </c>
       <c r="E124" t="n">
         <v>104.88</v>
@@ -3162,13 +3162,13 @@
         <v>45748</v>
       </c>
       <c r="B125" t="n">
-        <v>-34.25</v>
+        <v>-36.86</v>
       </c>
       <c r="C125" t="n">
-        <v>-39.01</v>
+        <v>-39.57</v>
       </c>
       <c r="D125" t="n">
-        <v>-12.82</v>
+        <v>-12.81</v>
       </c>
       <c r="E125" t="n">
         <v>18.34</v>
@@ -3185,22 +3185,45 @@
         <v>45778</v>
       </c>
       <c r="B126" t="n">
-        <v>5.93</v>
+        <v>10.12</v>
       </c>
       <c r="C126" t="n">
-        <v>5.02</v>
+        <v>7.19</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.49</v>
+        <v>2.33</v>
       </c>
       <c r="E126" t="n">
-        <v>34.65</v>
+        <v>37.04</v>
       </c>
       <c r="F126" t="n">
-        <v>29.34</v>
+        <v>31.56</v>
       </c>
       <c r="G126" t="n">
-        <v>-2.68</v>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-23.01</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-26.28</v>
+      </c>
+      <c r="D127" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="E127" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="G127" t="n">
+        <v>5.6</v>
       </c>
     </row>
   </sheetData>
@@ -4682,13 +4705,13 @@
         <v>45627</v>
       </c>
       <c r="B107" t="n">
-        <v>22.26</v>
+        <v>21.36</v>
       </c>
       <c r="C107" t="n">
-        <v>21.76</v>
+        <v>21.31</v>
       </c>
       <c r="D107" t="n">
-        <v>14.16</v>
+        <v>13.94</v>
       </c>
     </row>
     <row r="108">
@@ -4696,13 +4719,13 @@
         <v>45658</v>
       </c>
       <c r="B108" t="n">
-        <v>28.43</v>
+        <v>27.56</v>
       </c>
       <c r="C108" t="n">
-        <v>25.55</v>
+        <v>25.12</v>
       </c>
       <c r="D108" t="n">
-        <v>15.7</v>
+        <v>15.49</v>
       </c>
     </row>
     <row r="109">
@@ -4710,13 +4733,13 @@
         <v>45689</v>
       </c>
       <c r="B109" t="n">
-        <v>38.31</v>
+        <v>37.43</v>
       </c>
       <c r="C109" t="n">
-        <v>33.78</v>
+        <v>33.35</v>
       </c>
       <c r="D109" t="n">
-        <v>20.83</v>
+        <v>20.61</v>
       </c>
     </row>
     <row r="110">
@@ -4727,10 +4750,10 @@
         <v>65.1</v>
       </c>
       <c r="C110" t="n">
-        <v>45.08</v>
+        <v>44.67</v>
       </c>
       <c r="D110" t="n">
-        <v>30.06</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="111">
@@ -4741,10 +4764,10 @@
         <v>56.24</v>
       </c>
       <c r="C111" t="n">
-        <v>43.11</v>
+        <v>42.7</v>
       </c>
       <c r="D111" t="n">
-        <v>28.56</v>
+        <v>28.35</v>
       </c>
     </row>
     <row r="112">
@@ -4752,13 +4775,27 @@
         <v>45778</v>
       </c>
       <c r="B112" t="n">
-        <v>47.11</v>
+        <v>47.82</v>
       </c>
       <c r="C112" t="n">
-        <v>43.04</v>
+        <v>43.02</v>
       </c>
       <c r="D112" t="n">
-        <v>30.24</v>
+        <v>30.23</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B113" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="C113" t="n">
+        <v>40.78</v>
+      </c>
+      <c r="D113" t="n">
+        <v>31.68</v>
       </c>
     </row>
   </sheetData>

--- a/SUMMARY_EXPORT_DATA_DOWNLOAD.xlsx
+++ b/SUMMARY_EXPORT_DATA_DOWNLOAD.xlsx
@@ -2829,7 +2829,7 @@
         <v>19.24</v>
       </c>
       <c r="F110" t="n">
-        <v>22.01</v>
+        <v>21.82</v>
       </c>
       <c r="G110" t="n">
         <v>-15.95</v>
@@ -2944,10 +2944,10 @@
         <v>-11.68</v>
       </c>
       <c r="F115" t="n">
-        <v>-8.94</v>
+        <v>-8.73</v>
       </c>
       <c r="G115" t="n">
-        <v>-6.89</v>
+        <v>-6.23</v>
       </c>
     </row>
     <row r="116">
@@ -2967,10 +2967,10 @@
         <v>11.62</v>
       </c>
       <c r="F116" t="n">
-        <v>16.15</v>
+        <v>16.59</v>
       </c>
       <c r="G116" t="n">
-        <v>11.04</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="117">
@@ -2990,10 +2990,10 @@
         <v>6.51</v>
       </c>
       <c r="F117" t="n">
-        <v>7.78</v>
+        <v>7.95</v>
       </c>
       <c r="G117" t="n">
-        <v>7.06</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="118">
@@ -3013,10 +3013,10 @@
         <v>35.86</v>
       </c>
       <c r="F118" t="n">
-        <v>40</v>
+        <v>40.69</v>
       </c>
       <c r="G118" t="n">
-        <v>-5.29</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="119">
@@ -3036,10 +3036,10 @@
         <v>21.73</v>
       </c>
       <c r="F119" t="n">
-        <v>20.81</v>
+        <v>21.06</v>
       </c>
       <c r="G119" t="n">
-        <v>1.06</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="120">
@@ -3059,10 +3059,10 @@
         <v>26.86</v>
       </c>
       <c r="F120" t="n">
-        <v>28.11</v>
+        <v>28.57</v>
       </c>
       <c r="G120" t="n">
-        <v>-17.35</v>
+        <v>-17.12</v>
       </c>
     </row>
     <row r="121">
@@ -3093,22 +3093,22 @@
         <v>45658</v>
       </c>
       <c r="B122" t="n">
-        <v>39.4</v>
+        <v>31.07</v>
       </c>
       <c r="C122" t="n">
-        <v>40.62</v>
+        <v>31.63</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.95</v>
+        <v>1.45</v>
       </c>
       <c r="E122" t="n">
-        <v>39.65</v>
+        <v>34.52</v>
       </c>
       <c r="F122" t="n">
-        <v>36.83</v>
+        <v>31.86</v>
       </c>
       <c r="G122" t="n">
-        <v>10.82</v>
+        <v>13.87</v>
       </c>
     </row>
     <row r="123">
@@ -3116,22 +3116,22 @@
         <v>45689</v>
       </c>
       <c r="B123" t="n">
-        <v>-1.39</v>
+        <v>3.73</v>
       </c>
       <c r="C123" t="n">
-        <v>3.44</v>
+        <v>9.2</v>
       </c>
       <c r="D123" t="n">
-        <v>21.55</v>
+        <v>14.08</v>
       </c>
       <c r="E123" t="n">
-        <v>66.87</v>
+        <v>66.13</v>
       </c>
       <c r="F123" t="n">
-        <v>58.24</v>
+        <v>56.75</v>
       </c>
       <c r="G123" t="n">
-        <v>22.15</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="124">
@@ -3139,22 +3139,22 @@
         <v>45717</v>
       </c>
       <c r="B124" t="n">
-        <v>36.8</v>
+        <v>36.54</v>
       </c>
       <c r="C124" t="n">
-        <v>38.27</v>
+        <v>37.83</v>
       </c>
       <c r="D124" t="n">
-        <v>-7.81</v>
+        <v>-4.34</v>
       </c>
       <c r="E124" t="n">
-        <v>104.88</v>
+        <v>102.19</v>
       </c>
       <c r="F124" t="n">
-        <v>98.68</v>
+        <v>95.92</v>
       </c>
       <c r="G124" t="n">
-        <v>11.25</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="125">
@@ -3162,13 +3162,13 @@
         <v>45748</v>
       </c>
       <c r="B125" t="n">
-        <v>-36.86</v>
+        <v>-36.81</v>
       </c>
       <c r="C125" t="n">
-        <v>-39.57</v>
+        <v>-38.2</v>
       </c>
       <c r="D125" t="n">
-        <v>-12.81</v>
+        <v>-12.31</v>
       </c>
       <c r="E125" t="n">
         <v>18.34</v>
@@ -3185,13 +3185,13 @@
         <v>45778</v>
       </c>
       <c r="B126" t="n">
-        <v>10.12</v>
+        <v>11.31</v>
       </c>
       <c r="C126" t="n">
-        <v>7.19</v>
+        <v>6.98</v>
       </c>
       <c r="D126" t="n">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="E126" t="n">
         <v>37.04</v>
@@ -3208,22 +3208,91 @@
         <v>45809</v>
       </c>
       <c r="B127" t="n">
-        <v>-23.01</v>
+        <v>-23.75</v>
       </c>
       <c r="C127" t="n">
-        <v>-26.28</v>
+        <v>-28.18</v>
       </c>
       <c r="D127" t="n">
-        <v>6.41</v>
+        <v>6.06</v>
       </c>
       <c r="E127" t="n">
-        <v>12.16</v>
+        <v>10.68</v>
       </c>
       <c r="F127" t="n">
-        <v>4.81</v>
+        <v>3.2</v>
       </c>
       <c r="G127" t="n">
-        <v>5.6</v>
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="C128" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="D128" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-5.87</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="D129" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-6.92</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B130" t="n">
+        <v>50.63</v>
+      </c>
+      <c r="C130" t="n">
+        <v>57.08</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-11.87</v>
+      </c>
+      <c r="E130" t="n">
+        <v>39.34</v>
+      </c>
+      <c r="F130" t="n">
+        <v>27.81</v>
+      </c>
+      <c r="G130" t="n">
+        <v>3.72</v>
       </c>
     </row>
   </sheetData>
@@ -4551,13 +4620,13 @@
         <v>45292</v>
       </c>
       <c r="B96" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="C96" t="n">
-        <v>-5.84</v>
+        <v>-5.86</v>
       </c>
       <c r="D96" t="n">
-        <v>-4.21</v>
+        <v>-4.22</v>
       </c>
     </row>
     <row r="97">
@@ -4565,13 +4634,13 @@
         <v>45323</v>
       </c>
       <c r="B97" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="C97" t="n">
-        <v>-3.53</v>
+        <v>-3.56</v>
       </c>
       <c r="D97" t="n">
-        <v>-4.97</v>
+        <v>-4.98</v>
       </c>
     </row>
     <row r="98">
@@ -4579,13 +4648,13 @@
         <v>45352</v>
       </c>
       <c r="B98" t="n">
-        <v>6.02</v>
+        <v>5.96</v>
       </c>
       <c r="C98" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="D98" t="n">
-        <v>-4.06</v>
+        <v>-4.07</v>
       </c>
     </row>
     <row r="99">
@@ -4596,10 +4665,10 @@
         <v>7.7</v>
       </c>
       <c r="C99" t="n">
-        <v>4.79</v>
+        <v>4.76</v>
       </c>
       <c r="D99" t="n">
-        <v>-1.03</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="100">
@@ -4610,10 +4679,10 @@
         <v>12.1</v>
       </c>
       <c r="C100" t="n">
-        <v>7.36</v>
+        <v>7.33</v>
       </c>
       <c r="D100" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="101">
@@ -4621,13 +4690,13 @@
         <v>45444</v>
       </c>
       <c r="B101" t="n">
-        <v>8.05</v>
+        <v>8.13</v>
       </c>
       <c r="C101" t="n">
-        <v>7.03</v>
+        <v>7.04</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.82</v>
+        <v>-0.81</v>
       </c>
     </row>
     <row r="102">
@@ -4635,13 +4704,13 @@
         <v>45474</v>
       </c>
       <c r="B102" t="n">
-        <v>4.58</v>
+        <v>4.8</v>
       </c>
       <c r="C102" t="n">
-        <v>6.14</v>
+        <v>6.25</v>
       </c>
       <c r="D102" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="103">
@@ -4649,13 +4718,13 @@
         <v>45505</v>
       </c>
       <c r="B103" t="n">
-        <v>4.26</v>
+        <v>4.53</v>
       </c>
       <c r="C103" t="n">
-        <v>8.2</v>
+        <v>8.33</v>
       </c>
       <c r="D103" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="104">
@@ -4663,13 +4732,13 @@
         <v>45536</v>
       </c>
       <c r="B104" t="n">
-        <v>21.26</v>
+        <v>21.69</v>
       </c>
       <c r="C104" t="n">
-        <v>14.48</v>
+        <v>14.73</v>
       </c>
       <c r="D104" t="n">
-        <v>7.34</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="105">
@@ -4677,13 +4746,13 @@
         <v>45566</v>
       </c>
       <c r="B105" t="n">
-        <v>22.71</v>
+        <v>23.08</v>
       </c>
       <c r="C105" t="n">
-        <v>13.55</v>
+        <v>13.84</v>
       </c>
       <c r="D105" t="n">
-        <v>9.2</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="106">
@@ -4691,13 +4760,13 @@
         <v>45597</v>
       </c>
       <c r="B106" t="n">
-        <v>29.33</v>
+        <v>29.79</v>
       </c>
       <c r="C106" t="n">
-        <v>16.71</v>
+        <v>17.08</v>
       </c>
       <c r="D106" t="n">
-        <v>12.07</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="107">
@@ -4705,13 +4774,13 @@
         <v>45627</v>
       </c>
       <c r="B107" t="n">
-        <v>21.36</v>
+        <v>21.61</v>
       </c>
       <c r="C107" t="n">
-        <v>21.31</v>
+        <v>21.65</v>
       </c>
       <c r="D107" t="n">
-        <v>13.94</v>
+        <v>14.12</v>
       </c>
     </row>
     <row r="108">
@@ -4719,13 +4788,13 @@
         <v>45658</v>
       </c>
       <c r="B108" t="n">
-        <v>27.56</v>
+        <v>25.78</v>
       </c>
       <c r="C108" t="n">
-        <v>25.12</v>
+        <v>24.42</v>
       </c>
       <c r="D108" t="n">
-        <v>15.49</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="109">
@@ -4733,13 +4802,13 @@
         <v>45689</v>
       </c>
       <c r="B109" t="n">
-        <v>37.43</v>
+        <v>35.01</v>
       </c>
       <c r="C109" t="n">
-        <v>33.35</v>
+        <v>32.38</v>
       </c>
       <c r="D109" t="n">
-        <v>20.61</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="110">
@@ -4747,13 +4816,13 @@
         <v>45717</v>
       </c>
       <c r="B110" t="n">
-        <v>65.1</v>
+        <v>61.95</v>
       </c>
       <c r="C110" t="n">
-        <v>44.67</v>
+        <v>43.1</v>
       </c>
       <c r="D110" t="n">
-        <v>29.85</v>
+        <v>29.18</v>
       </c>
     </row>
     <row r="111">
@@ -4761,13 +4830,13 @@
         <v>45748</v>
       </c>
       <c r="B111" t="n">
-        <v>56.24</v>
+        <v>54.83</v>
       </c>
       <c r="C111" t="n">
-        <v>42.7</v>
+        <v>41.12</v>
       </c>
       <c r="D111" t="n">
-        <v>28.35</v>
+        <v>27.69</v>
       </c>
     </row>
     <row r="112">
@@ -4775,13 +4844,13 @@
         <v>45778</v>
       </c>
       <c r="B112" t="n">
-        <v>47.82</v>
+        <v>46.88</v>
       </c>
       <c r="C112" t="n">
-        <v>43.02</v>
+        <v>41.4</v>
       </c>
       <c r="D112" t="n">
-        <v>30.23</v>
+        <v>29.58</v>
       </c>
     </row>
     <row r="113">
@@ -4789,13 +4858,55 @@
         <v>45809</v>
       </c>
       <c r="B113" t="n">
-        <v>16.54</v>
+        <v>16.03</v>
       </c>
       <c r="C113" t="n">
-        <v>40.78</v>
+        <v>38.94</v>
       </c>
       <c r="D113" t="n">
-        <v>31.68</v>
+        <v>30.86</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B114" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="C114" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D114" t="n">
+        <v>28.69</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-3.32</v>
+      </c>
+      <c r="C115" t="n">
+        <v>22.76</v>
+      </c>
+      <c r="D115" t="n">
+        <v>27.32</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="C116" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="D116" t="n">
+        <v>26.37</v>
       </c>
     </row>
   </sheetData>
